--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12347" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13526" uniqueCount="215">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -609,6 +609,57 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId89</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1902,7 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -2445,16 +2496,16 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
         <v>58</v>
@@ -2462,16 +2513,16 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
@@ -2479,7 +2530,7 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -2488,7 +2539,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
         <v>58</v>
@@ -2496,7 +2547,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -2505,7 +2556,7 @@
         <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -2513,7 +2564,7 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -2522,7 +2573,7 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -2530,16 +2581,16 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
         <v>58</v>
@@ -2547,16 +2598,16 @@
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>58</v>
@@ -2564,16 +2615,16 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
@@ -2581,16 +2632,16 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
         <v>58</v>
@@ -2598,16 +2649,16 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
         <v>58</v>
@@ -2615,16 +2666,16 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
         <v>58</v>
@@ -2632,7 +2683,7 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2641,7 +2692,7 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
         <v>58</v>
@@ -2649,16 +2700,16 @@
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
@@ -2666,16 +2717,16 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
@@ -2683,16 +2734,16 @@
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F32" t="s">
         <v>58</v>
@@ -2700,16 +2751,16 @@
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
         <v>58</v>
@@ -2717,16 +2768,16 @@
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
         <v>58</v>
@@ -2734,16 +2785,16 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
@@ -2751,16 +2802,16 @@
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
         <v>58</v>
@@ -2768,16 +2819,16 @@
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>58</v>
@@ -2785,16 +2836,16 @@
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
         <v>58</v>
@@ -2802,16 +2853,16 @@
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
         <v>58</v>
@@ -2819,16 +2870,16 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
         <v>58</v>
@@ -2836,16 +2887,16 @@
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
         <v>58</v>
@@ -2853,7 +2904,7 @@
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
         <v>92</v>
@@ -2862,7 +2913,7 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
         <v>58</v>
@@ -2870,7 +2921,7 @@
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
         <v>92</v>
@@ -2879,7 +2930,7 @@
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
         <v>58</v>
@@ -2887,16 +2938,16 @@
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
         <v>58</v>
@@ -2904,16 +2955,16 @@
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
         <v>58</v>
@@ -2921,16 +2972,16 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
         <v>58</v>
@@ -2938,16 +2989,16 @@
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
         <v>58</v>
@@ -2955,7 +3006,7 @@
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
@@ -2964,7 +3015,7 @@
         <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
         <v>58</v>
@@ -2972,16 +3023,16 @@
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F49" t="s">
         <v>58</v>
@@ -2989,16 +3040,16 @@
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
         <v>58</v>
@@ -3006,16 +3057,16 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
         <v>58</v>
@@ -3023,7 +3074,7 @@
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
@@ -3032,7 +3083,7 @@
         <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="F52" t="s">
         <v>58</v>
@@ -3040,10 +3091,10 @@
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
@@ -3057,10 +3108,10 @@
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -3074,16 +3125,16 @@
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C55" t="s">
         <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
@@ -3091,16 +3142,16 @@
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
         <v>58</v>
@@ -3108,21 +3159,107 @@
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s">
         <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" t="s">
         <v>129</v>
       </c>
-      <c r="F57" t="s">
-        <v>58</v>
-      </c>
-    </row>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13526" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14664" uniqueCount="218">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -660,6 +660,15 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2067,9 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -2284,7 +2295,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
         <v>58</v>
@@ -2309,16 +2320,16 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2326,7 +2337,7 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -2343,7 +2354,7 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>92</v>
@@ -2360,7 +2371,7 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -2377,7 +2388,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -2394,7 +2405,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
@@ -2411,7 +2422,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>92</v>
@@ -2428,7 +2439,7 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>92</v>
@@ -2445,10 +2456,10 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -2462,16 +2473,16 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
@@ -2479,16 +2490,16 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -2496,7 +2507,7 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -2505,7 +2516,7 @@
         <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="F18" t="s">
         <v>58</v>
@@ -2513,7 +2524,7 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -2522,7 +2533,7 @@
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
@@ -2530,7 +2541,7 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -2539,7 +2550,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
         <v>58</v>
@@ -2547,7 +2558,7 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -2556,7 +2567,7 @@
         <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -2564,16 +2575,16 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -2581,16 +2592,16 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
         <v>58</v>
@@ -2598,16 +2609,16 @@
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
         <v>58</v>
@@ -2615,16 +2626,16 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
@@ -2632,7 +2643,7 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -2641,7 +2652,7 @@
         <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
         <v>58</v>
@@ -2649,16 +2660,16 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
         <v>58</v>
@@ -2666,16 +2677,16 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="F28" t="s">
         <v>58</v>
@@ -2683,16 +2694,16 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
         <v>58</v>
@@ -2700,16 +2711,16 @@
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
         <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
         <v>58</v>
@@ -2717,16 +2728,16 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
@@ -2734,16 +2745,16 @@
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
         <v>58</v>
@@ -2751,16 +2762,16 @@
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
         <v>58</v>
@@ -2768,16 +2779,16 @@
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s">
         <v>58</v>
@@ -2785,16 +2796,16 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
@@ -2802,7 +2813,7 @@
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
         <v>92</v>
@@ -2811,7 +2822,7 @@
         <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
         <v>58</v>
@@ -2819,7 +2830,7 @@
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
         <v>92</v>
@@ -2828,7 +2839,7 @@
         <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
         <v>58</v>
@@ -2836,7 +2847,7 @@
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
         <v>92</v>
@@ -2845,7 +2856,7 @@
         <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
         <v>58</v>
@@ -2853,7 +2864,7 @@
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s">
         <v>92</v>
@@ -2862,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
         <v>58</v>
@@ -2870,7 +2881,7 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
         <v>92</v>
@@ -2879,7 +2890,7 @@
         <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F40" t="s">
         <v>58</v>
@@ -2887,7 +2898,7 @@
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
         <v>92</v>
@@ -2896,7 +2907,7 @@
         <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
         <v>58</v>
@@ -2904,7 +2915,7 @@
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
         <v>92</v>
@@ -2913,7 +2924,7 @@
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
         <v>58</v>
@@ -2921,16 +2932,16 @@
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
         <v>58</v>
@@ -2938,16 +2949,16 @@
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
         <v>58</v>
@@ -2955,16 +2966,16 @@
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
         <v>58</v>
@@ -2972,16 +2983,16 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
         <v>58</v>
@@ -2989,16 +3000,16 @@
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F47" t="s">
         <v>58</v>
@@ -3006,16 +3017,16 @@
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s">
         <v>58</v>
@@ -3023,16 +3034,16 @@
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
         <v>58</v>
@@ -3040,16 +3051,16 @@
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
         <v>58</v>
@@ -3057,16 +3068,16 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
         <v>58</v>
@@ -3074,16 +3085,16 @@
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
         <v>58</v>
@@ -3091,16 +3102,16 @@
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
         <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
         <v>58</v>
@@ -3108,16 +3119,16 @@
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s">
         <v>58</v>
@@ -3125,16 +3136,16 @@
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
         <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s">
         <v>58</v>
@@ -3142,16 +3153,16 @@
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F56" t="s">
         <v>58</v>
@@ -3159,16 +3170,16 @@
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
         <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
         <v>58</v>
@@ -3176,16 +3187,16 @@
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
         <v>58</v>
@@ -3193,16 +3204,16 @@
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="F59" t="s">
         <v>58</v>
@@ -3210,55 +3221,23 @@
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    <row r="61"/>
+    <row r="62"/>
     <row r="63"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14664" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16292" uniqueCount="228">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -669,6 +669,36 @@
   </si>
   <si>
     <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL</t>
   </si>
 </sst>
 </file>
@@ -2788,7 +2818,7 @@
         <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
         <v>58</v>
@@ -2958,7 +2988,7 @@
         <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
         <v>58</v>
@@ -3043,7 +3073,7 @@
         <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F49" t="s">
         <v>58</v>
@@ -3051,7 +3081,7 @@
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
         <v>40</v>
@@ -3068,7 +3098,7 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
         <v>40</v>
@@ -3085,7 +3115,7 @@
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
@@ -3102,7 +3132,7 @@
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
         <v>40</v>
@@ -3119,16 +3149,16 @@
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="F54" t="s">
         <v>58</v>
@@ -3136,10 +3166,10 @@
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -3153,16 +3183,16 @@
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s">
         <v>58</v>
@@ -3170,10 +3200,10 @@
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -3187,16 +3217,16 @@
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
         <v>58</v>
@@ -3204,16 +3234,16 @@
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="F59" t="s">
         <v>58</v>
@@ -3221,24 +3251,91 @@
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65"/>
+    <row r="66"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16292" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16709" uniqueCount="230">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t xml:space="preserve">OIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId98</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1953,9 @@
         <v>4</v>
       </c>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
       <c r="H4"/>
       <c r="I4" t="s">
         <v>44</v>
@@ -3152,7 +3160,7 @@
         <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
@@ -3169,7 +3177,7 @@
         <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -3334,8 +3342,40 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65"/>
-    <row r="66"/>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
